--- a/data/trans_bre/P20-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.492520338904089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.496337262321008</v>
+        <v>1.496337262321007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2475736549435065</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.32425544832865</v>
+        <v>-2.024942365279478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.806123204273338</v>
+        <v>1.993425945302183</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.395160298414623</v>
+        <v>-0.8357089579730729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.488834628939102</v>
+        <v>-1.682994613141253</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3972239790125044</v>
+        <v>-0.3406223207170337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2684499755627496</v>
+        <v>0.262415352055741</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06401215615305969</v>
+        <v>-0.1248629551731776</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2137917491318818</v>
+        <v>-0.2289323671082274</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.484528236618991</v>
+        <v>4.781259532459401</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.67550695775465</v>
+        <v>10.96472267551257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.577806820255459</v>
+        <v>7.442564604234005</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.549750680554608</v>
+        <v>4.443360178151758</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.288846877686106</v>
+        <v>1.339239033119693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.321836577619924</v>
+        <v>3.376114175825641</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.922029638163078</v>
+        <v>1.702103271311283</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.030834583671718</v>
+        <v>0.9811309424481267</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2115889563396676</v>
+        <v>0.3449858826443401</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.336079198658214</v>
+        <v>1.927880105739632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.2660054114094037</v>
+        <v>-0.1437326590640631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05648560807820315</v>
+        <v>0.2471359938843727</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02225275551071159</v>
+        <v>0.03644937383690833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3534789908296394</v>
+        <v>0.2676304684670577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07634050122527299</v>
+        <v>-0.08762991211784063</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.002822187852562022</v>
+        <v>0.02823100999801417</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.298362880675553</v>
+        <v>7.324797639389545</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.47238397173002</v>
+        <v>10.03509242536818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.516060001426926</v>
+        <v>7.554189870311304</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.957440518092412</v>
+        <v>6.208667793715602</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.073182198359568</v>
+        <v>2.445654280054793</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.698416563726277</v>
+        <v>3.701986749833625</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.960878585001019</v>
+        <v>1.968329110726864</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.5938357291054</v>
+        <v>1.875508983546209</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.512969980397992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.956970149424925</v>
+        <v>1.956970149424926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.512578781241477</v>
@@ -849,7 +849,7 @@
         <v>0.5745670185267543</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2498974012130512</v>
+        <v>0.2498974012130514</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.679509897196787</v>
+        <v>1.758966838212055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.783135506731442</v>
+        <v>-3.178264507380909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.538986569941821</v>
+        <v>-0.7007750930403046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.066585838995834</v>
+        <v>-2.375422573780245</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3368552499748141</v>
+        <v>0.2931654362028561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3091744708375948</v>
+        <v>-0.353520879526443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2213572484209544</v>
+        <v>-0.1258296489446649</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3350646073883545</v>
+        <v>-0.294892980201192</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.34446212234506</v>
+        <v>11.93109587636873</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.299888804741419</v>
+        <v>5.413134297763481</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.417488324863386</v>
+        <v>10.37864914666197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.175701886576154</v>
+        <v>7.616081418766317</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.067318580624604</v>
+        <v>3.843855285586488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8368105908548019</v>
+        <v>0.8339590910771112</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.980520681479076</v>
+        <v>1.976141003239683</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.108085618188186</v>
+        <v>1.158120034608057</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.605944395966535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.378127426046554</v>
+        <v>1.378127426046555</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9386252113209718</v>
@@ -949,7 +949,7 @@
         <v>0.9816740835925701</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.247674897786055</v>
+        <v>0.2476748977860552</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.926274985671702</v>
+        <v>1.740781397222642</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.716866407758634</v>
+        <v>1.457730895695743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.385726110606026</v>
+        <v>2.3814143066842</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7080729467866274</v>
+        <v>-0.7980157681130023</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3783115595361006</v>
+        <v>0.322934544611017</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2442780735145125</v>
+        <v>0.1873849588573906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4059790670697522</v>
+        <v>0.3764832741525452</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1207358967231863</v>
+        <v>-0.127736409607392</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.030598004121537</v>
+        <v>6.605981709918495</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.811990293423655</v>
+        <v>6.806124078372301</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.222216226097683</v>
+        <v>7.153064450662256</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.493556075001063</v>
+        <v>3.386311185171091</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.858748748184833</v>
+        <v>1.741434531498659</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.25342801594828</v>
+        <v>1.246637072227308</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.862355546555908</v>
+        <v>1.79221459884188</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7544682371788584</v>
+        <v>0.7644622182401384</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.806625906444402</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.127520679174154</v>
+        <v>-2.127520679174153</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6656381576363146</v>
@@ -1049,7 +1049,7 @@
         <v>0.7970093758098897</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2740038498981797</v>
+        <v>-0.2740038498981795</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1757889081647541</v>
+        <v>-0.2248043300339577</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5120100762446914</v>
+        <v>-0.2606317604838719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3166779164757039</v>
+        <v>0.322893520269025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.659068457793223</v>
+        <v>-4.878511792035358</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.04588207804295089</v>
+        <v>-0.07880404137040128</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.06468707793221549</v>
+        <v>-0.03773905020508093</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04931993894093711</v>
+        <v>0.04862382899875393</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.496540626147888</v>
+        <v>-0.5100762118881758</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.125706624713567</v>
+        <v>6.172803154749136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.084411366855988</v>
+        <v>6.160111646811504</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.322306732712917</v>
+        <v>5.05056139423901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6437630323699834</v>
+        <v>0.3249747432385522</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.201469844494345</v>
+        <v>2.183467312256093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.097235907845077</v>
+        <v>1.119933076296852</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.267912613251641</v>
+        <v>1.986758674325517</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.09906780817200983</v>
+        <v>0.053598019513819</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.978269570562015</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.445129383640724</v>
+        <v>3.445129383640726</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>4.285900428566465</v>
@@ -1149,7 +1149,7 @@
         <v>0.9474344996737686</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.964745739505276</v>
+        <v>1.964745739505277</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.829038789539457</v>
+        <v>2.93013046890668</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.980374658637409</v>
+        <v>1.963932826285352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1358372734096359</v>
+        <v>0.1543559323234644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7068630794631917</v>
+        <v>0.6113553266917409</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7223425718667392</v>
+        <v>0.626530985917968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3230616069645907</v>
+        <v>0.3170715716076046</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03153790000371809</v>
+        <v>-0.006350859531776444</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0353836489226108</v>
+        <v>-0.0124768232593536</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.842196855695343</v>
+        <v>6.960266738992769</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.108267523644483</v>
+        <v>6.954647694895794</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.386733607242256</v>
+        <v>5.406734140623717</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.533950055743784</v>
+        <v>5.528365472297001</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>21.22456301049355</v>
+        <v>19.80575178530194</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.199157067910156</v>
+        <v>4.562069018792594</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.157727458510381</v>
+        <v>3.282521458061635</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>12.53102915654669</v>
+        <v>9.364762997163318</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.176889806432556</v>
+        <v>2.126624832552955</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.039950920870394</v>
+        <v>1.87424484955854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.721003375835401</v>
+        <v>1.672784701180262</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3984043678327704</v>
+        <v>-0.497124859094979</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4568804998174375</v>
+        <v>0.4490283376852544</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2894956838260254</v>
+        <v>0.2725352649239438</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3137792396916206</v>
+        <v>0.3160032890273484</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.06068274188248238</v>
+        <v>-0.0787854964993978</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.380822116650263</v>
+        <v>4.309866354583408</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.697396896363154</v>
+        <v>4.632620056558691</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.110003258235547</v>
+        <v>4.06139175867027</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.629558706715749</v>
+        <v>1.819899433542989</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.210293940741926</v>
+        <v>1.164146641924474</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8515428928283023</v>
+        <v>0.8540345288264428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9529454148963068</v>
+        <v>0.9348213362378394</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3051135501043425</v>
+        <v>0.34894675152285</v>
       </c>
     </row>
     <row r="25">
